--- a/chapter2/Chapter2-1a.xlsx
+++ b/chapter2/Chapter2-1a.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902DF988-FB54-4D64-8063-21B5270B4DE3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="temp-sale" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,24 +25,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>SUM(X)</t>
+  </si>
+  <si>
+    <t>SUM(Y)</t>
+  </si>
+  <si>
+    <t>SUM(XY)</t>
+  </si>
+  <si>
+    <t>SUM(X^2)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Scoring Data</t>
+  </si>
+  <si>
+    <t>Prediction</t>
+  </si>
   <si>
     <t>Temperature (F)</t>
   </si>
   <si>
     <t>Ice Cream Sale (dollar in thousand)</t>
-  </si>
-  <si>
-    <t>To be predicted</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -70,8 +111,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -87,6 +134,86 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6029325" y="0"/>
+          <a:ext cx="5534025" cy="1238250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>In a southern</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> town near a beautiful beach, the manager of a supermarket discovered a relationship between the weekly averaged daily high temperatures and the ice cream sale during summer seasons. He is now using the data he has accumulated to predict the stores ice creamsales.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,113 +478,167 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>91</v>
+      </c>
+      <c r="B2" s="2">
+        <v>89.8</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>87</v>
+      </c>
+      <c r="B3" s="2">
+        <v>90.2</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>86</v>
+      </c>
+      <c r="B4" s="2">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>91</v>
-      </c>
-      <c r="B2">
-        <v>89.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>87</v>
-      </c>
-      <c r="B3">
-        <v>90.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>86</v>
-      </c>
-      <c r="B4">
-        <v>81.099999999999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>88</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>92.8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>90.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>95.2</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>119</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>93.3</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>94.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>97.7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>132.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12">
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2">
         <v>88.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2">
         <v>96.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2">
         <v>94.7</v>
       </c>
+      <c r="D14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/chapter2/Chapter2-1a.xlsx
+++ b/chapter2/Chapter2-1a.xlsx
@@ -25,28 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>SUM(X)</t>
-  </si>
-  <si>
-    <t>SUM(Y)</t>
-  </si>
-  <si>
-    <t>SUM(XY)</t>
-  </si>
-  <si>
-    <t>SUM(X^2)</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Scoring Data</t>
   </si>
@@ -482,7 +461,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,10 +474,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -520,9 +499,7 @@
       <c r="B3" s="2">
         <v>90.2</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -532,9 +509,7 @@
       <c r="B4" s="2">
         <v>81.099999999999994</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -544,9 +519,7 @@
       <c r="B5" s="2">
         <v>83</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -556,9 +529,7 @@
       <c r="B6" s="2">
         <v>90.9</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -568,9 +539,7 @@
       <c r="B7" s="2">
         <v>119</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -580,9 +549,7 @@
       <c r="B8" s="2">
         <v>94.9</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -592,9 +559,7 @@
       <c r="B9" s="2">
         <v>132.4</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -607,10 +572,10 @@
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
